--- a/DatabaseExcel/KQHP.xlsx
+++ b/DatabaseExcel/KQHP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITT\QuanLyDiem\DatabaseExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,34 +26,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
-    <t>HV01</t>
-  </si>
-  <si>
-    <t>HV02</t>
-  </si>
-  <si>
-    <t>HV03</t>
-  </si>
-  <si>
-    <t>HV04</t>
-  </si>
-  <si>
-    <t>HV05</t>
-  </si>
-  <si>
-    <t>HP01</t>
-  </si>
-  <si>
-    <t>HP02</t>
-  </si>
-  <si>
-    <t>HP03</t>
-  </si>
-  <si>
-    <t>HP04</t>
-  </si>
-  <si>
-    <t>HP05</t>
+    <t>HV001</t>
+  </si>
+  <si>
+    <t>HV002</t>
+  </si>
+  <si>
+    <t>HV003</t>
+  </si>
+  <si>
+    <t>HV004</t>
+  </si>
+  <si>
+    <t>HV005</t>
+  </si>
+  <si>
+    <t>HP001</t>
+  </si>
+  <si>
+    <t>HP002</t>
+  </si>
+  <si>
+    <t>HP005</t>
+  </si>
+  <si>
+    <t>HP003</t>
+  </si>
+  <si>
+    <t>HP004</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DatabaseExcel/KQHP.xlsx
+++ b/DatabaseExcel/KQHP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITT\QuanLyDiem\DatabaseExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\QuanLyDiem\DatabaseExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A8833-FB7F-4200-87F1-5DDE4F70AD10}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>HV001</t>
   </si>
@@ -54,12 +55,27 @@
   </si>
   <si>
     <t>HP004</t>
+  </si>
+  <si>
+    <t>HP006</t>
+  </si>
+  <si>
+    <t>HP007</t>
+  </si>
+  <si>
+    <t>HP008</t>
+  </si>
+  <si>
+    <t>HP009</t>
+  </si>
+  <si>
+    <t>HP010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -427,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -444,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -512,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
